--- a/Sadia.xlsx.xlsx
+++ b/Sadia.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shifty\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8EB6E2-9951-4B83-8802-C513CE001EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8541EA3D-CBDF-41C7-8C55-6E74F00B03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4C533E71-CF4E-46C4-A34B-8DF2E2E0D45C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Target Disease</t>
   </si>
@@ -81,25 +81,7 @@
     <t> Designing and synthesizing inhibitory drugs in order to dysfunction and inactivate the cholera toxin inside the human body. </t>
   </si>
   <si>
-    <t>Zingiber officinale</t>
-  </si>
-  <si>
-    <t>Allium tuberosum</t>
-  </si>
-  <si>
-    <t>Trifolium repens</t>
-  </si>
-  <si>
     <t>Geranylacetone</t>
-  </si>
-  <si>
-    <t>Thyme</t>
-  </si>
-  <si>
-    <t>Cinnamomum verum</t>
-  </si>
-  <si>
-    <t>Curcuma aromatica</t>
   </si>
   <si>
     <r>
@@ -946,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0F38A-1029-45C5-A251-958C6B361B54}">
   <dimension ref="A1:L399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -1004,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1016,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L2" s="28">
         <v>10494</v>
@@ -1037,17 +1019,17 @@
         <v>10</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L3" s="28">
         <v>10104370</v>
@@ -1061,20 +1043,20 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L4" s="28">
         <v>1549778</v>
@@ -1083,23 +1065,23 @@
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L5" s="28">
         <v>11622</v>
@@ -1108,23 +1090,23 @@
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L6" s="28">
         <v>11597</v>
@@ -1134,14 +1116,12 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="I7" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L7" s="28">
         <v>244</v>
@@ -1153,10 +1133,10 @@
       <c r="C8" s="6"/>
       <c r="I8" s="11"/>
       <c r="J8" s="29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L8" s="28">
         <v>263</v>
@@ -1168,10 +1148,10 @@
       <c r="C9" s="6"/>
       <c r="I9" s="11"/>
       <c r="J9" s="29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L9" s="28">
         <v>25913</v>
@@ -1183,10 +1163,10 @@
       <c r="C10" s="6"/>
       <c r="I10" s="11"/>
       <c r="J10" s="29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L10" s="28">
         <v>31289</v>
@@ -1198,10 +1178,10 @@
       <c r="C11" s="6"/>
       <c r="I11" s="11"/>
       <c r="J11" s="29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L11" s="28">
         <v>20928</v>
@@ -1211,14 +1191,12 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="I12" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L12" s="28">
         <v>6054</v>
@@ -1230,10 +1208,10 @@
       <c r="C13" s="6"/>
       <c r="I13" s="11"/>
       <c r="J13" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L13" s="28">
         <v>8181</v>
@@ -1243,14 +1221,12 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="I14" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L14" s="28">
         <v>985</v>
@@ -1262,10 +1238,10 @@
       <c r="C15" s="6"/>
       <c r="I15" s="11"/>
       <c r="J15" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L15" s="28">
         <v>9862</v>
@@ -1277,10 +1253,10 @@
       <c r="C16" s="6"/>
       <c r="I16" s="11"/>
       <c r="J16" s="29" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L16" s="28">
         <v>8857</v>
@@ -1292,10 +1268,10 @@
       <c r="C17" s="6"/>
       <c r="I17" s="11"/>
       <c r="J17" s="29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L17" s="28">
         <v>94275</v>
@@ -1307,10 +1283,10 @@
       <c r="C18" s="6"/>
       <c r="I18" s="11"/>
       <c r="J18" s="29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L18" s="28">
         <v>5317844</v>
@@ -1322,10 +1298,10 @@
       <c r="C19" s="6"/>
       <c r="I19" s="11"/>
       <c r="J19" s="29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L19" s="28">
         <v>6549</v>
@@ -1337,10 +1313,10 @@
       <c r="C20" s="6"/>
       <c r="I20" s="11"/>
       <c r="J20" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L20" s="28">
         <v>9855795</v>
@@ -1350,14 +1326,12 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="I21" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="29" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L21" s="28">
         <v>5281520</v>
@@ -1369,10 +1343,10 @@
       <c r="C22" s="6"/>
       <c r="I22" s="11"/>
       <c r="J22" s="29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L22" s="28">
         <v>493570</v>
@@ -1384,10 +1358,10 @@
       <c r="C23" s="6"/>
       <c r="I23" s="11"/>
       <c r="J23" s="29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L23" s="28">
         <v>445354</v>
@@ -1399,10 +1373,10 @@
       <c r="C24" s="6"/>
       <c r="I24" s="11"/>
       <c r="J24" s="29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L24" s="28">
         <v>22311</v>
@@ -1414,10 +1388,10 @@
       <c r="C25" s="6"/>
       <c r="I25" s="11"/>
       <c r="J25" s="29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L25" s="28">
         <v>3084462</v>
@@ -1429,10 +1403,10 @@
       <c r="C26" s="6"/>
       <c r="I26" s="11"/>
       <c r="J26" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L26" s="28">
         <v>3084376</v>
@@ -1451,9 +1425,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="I28" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="9"/>
       <c r="K28" s="2"/>
       <c r="L28" s="7"/>
@@ -1491,9 +1463,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="I33" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="I33" s="25"/>
       <c r="J33" s="26"/>
       <c r="K33" s="27"/>
       <c r="L33" s="28"/>
@@ -3406,20 +3376,14 @@
     <hyperlink ref="B3" r:id="rId2" tooltip="Persistent link using digital object identifier" xr:uid="{C91D891E-71EA-4438-B9F5-5426831FF7CF}"/>
     <hyperlink ref="B4" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{1E45BFBE-3980-4B3B-A233-94ACFA8BB9FF}"/>
     <hyperlink ref="F2" r:id="rId4" xr:uid="{48D30B5C-BD02-4F5B-9830-461624177782}"/>
-    <hyperlink ref="I2" r:id="rId5" display="https://cb.imsc.res.in/imppat/phytochemical/Zingiber officinale" xr:uid="{83357264-8F03-435A-ACD1-F8C9996ABD81}"/>
-    <hyperlink ref="I7" r:id="rId6" display="https://cb.imsc.res.in/imppat/phytochemical/Allium tuberosum" xr:uid="{3D4FB977-CF70-4D48-A967-430E9EFCD803}"/>
-    <hyperlink ref="I12" r:id="rId7" display="https://cb.imsc.res.in/imppat/phytochemical/Allium tuberosum" xr:uid="{EB8B88F7-237A-4BE7-AFB4-0B89CF4704D1}"/>
-    <hyperlink ref="I21" r:id="rId8" display="https://cb.imsc.res.in/imppat/phytochemical/Cinnamomum verum" xr:uid="{8F0F90C7-B57B-4511-9761-7F3B560E3CF2}"/>
-    <hyperlink ref="I28" r:id="rId9" display="https://cb.imsc.res.in/imppat/phytochemical/Curcuma aromatica" xr:uid="{66A6A834-A861-4628-B33A-FE2B28179690}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{A5411EB7-4DEB-4C6D-8540-BCA20FB94A8F}"/>
-    <hyperlink ref="B6" r:id="rId11" tooltip="Persistent link using digital object identifier" xr:uid="{FCEC0586-5F20-4D48-A3B2-E6ADD612F003}"/>
-    <hyperlink ref="C6" r:id="rId12" tooltip="Learn more about disease development from ScienceDirect's AI-generated Topic Pages" display="https://www.sciencedirect.com/topics/pharmacology-toxicology-and-pharmaceutical-science/disease-course" xr:uid="{9FBD9D0E-CD50-4549-AFE9-FBD624A4863A}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{F8EE08B9-1599-4E6F-B0B4-CCD70718CD84}"/>
-    <hyperlink ref="F4" r:id="rId14" tooltip="Persistent link using digital object identifier" xr:uid="{23527E1B-B438-46A4-95C2-1BFCA1E69288}"/>
-    <hyperlink ref="F5" r:id="rId15" xr:uid="{A2172A3F-123B-4458-8C88-1447E8148546}"/>
-    <hyperlink ref="I33" r:id="rId16" display="https://cb.imsc.res.in/imppat/phytochemical/Vitis vinifera" xr:uid="{CA88CD03-143F-4BE3-B6C4-F7419FE1EBB6}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{A5411EB7-4DEB-4C6D-8540-BCA20FB94A8F}"/>
+    <hyperlink ref="B6" r:id="rId6" tooltip="Persistent link using digital object identifier" xr:uid="{FCEC0586-5F20-4D48-A3B2-E6ADD612F003}"/>
+    <hyperlink ref="C6" r:id="rId7" tooltip="Learn more about disease development from ScienceDirect's AI-generated Topic Pages" display="https://www.sciencedirect.com/topics/pharmacology-toxicology-and-pharmaceutical-science/disease-course" xr:uid="{9FBD9D0E-CD50-4549-AFE9-FBD624A4863A}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{F8EE08B9-1599-4E6F-B0B4-CCD70718CD84}"/>
+    <hyperlink ref="F4" r:id="rId9" tooltip="Persistent link using digital object identifier" xr:uid="{23527E1B-B438-46A4-95C2-1BFCA1E69288}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{A2172A3F-123B-4458-8C88-1447E8148546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>